--- a/Code/Results/Cases/Case_0_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4111872577693703</v>
+        <v>0.4100175597556301</v>
       </c>
       <c r="D2">
-        <v>0.06915798136159168</v>
+        <v>0.03408206458156826</v>
       </c>
       <c r="E2">
-        <v>0.1840351091789074</v>
+        <v>0.1733727720169114</v>
       </c>
       <c r="F2">
-        <v>0.3460140074296163</v>
+        <v>0.6606048217810709</v>
       </c>
       <c r="G2">
-        <v>0.2398177499033523</v>
+        <v>0.5010273403105145</v>
       </c>
       <c r="H2">
-        <v>0.2144389407425749</v>
+        <v>0.6520397677357721</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.266958298050895</v>
+        <v>1.853689686677853</v>
       </c>
       <c r="L2">
-        <v>0.1697639352030293</v>
+        <v>0.1514483768234953</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9073064375296696</v>
+        <v>2.270256797398801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3670881749985142</v>
+        <v>0.4008109535730568</v>
       </c>
       <c r="D3">
-        <v>0.06172895819743474</v>
+        <v>0.03158881245200718</v>
       </c>
       <c r="E3">
-        <v>0.1637678296385374</v>
+        <v>0.1690780971998862</v>
       </c>
       <c r="F3">
-        <v>0.3289242744293119</v>
+        <v>0.6660892639240785</v>
       </c>
       <c r="G3">
-        <v>0.231434107065283</v>
+        <v>0.5081027607491535</v>
       </c>
       <c r="H3">
-        <v>0.2186566977541204</v>
+        <v>0.6606238608951216</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.58757065407849</v>
+        <v>1.633340012826352</v>
       </c>
       <c r="L3">
-        <v>0.1506251715110238</v>
+        <v>0.1473393954464797</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8978954267335553</v>
+        <v>2.302900786523963</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3404897209131548</v>
+        <v>0.3953787099069643</v>
       </c>
       <c r="D4">
-        <v>0.05716524994444683</v>
+        <v>0.03005079516928788</v>
       </c>
       <c r="E4">
-        <v>0.1515449813034913</v>
+        <v>0.166537162879461</v>
       </c>
       <c r="F4">
-        <v>0.3197650814785007</v>
+        <v>0.6700626017487394</v>
       </c>
       <c r="G4">
-        <v>0.2276037851081654</v>
+        <v>0.5129985167585005</v>
       </c>
       <c r="H4">
-        <v>0.2220358584949622</v>
+        <v>0.6663237581009298</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.170549531938946</v>
+        <v>1.497567283811691</v>
       </c>
       <c r="L4">
-        <v>0.1390843007757425</v>
+        <v>0.144902541993801</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8965511856932977</v>
+        <v>2.325000857630101</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3297610467846539</v>
+        <v>0.3932205692147193</v>
       </c>
       <c r="D5">
-        <v>0.05530443131754481</v>
+        <v>0.02942228815950187</v>
       </c>
       <c r="E5">
-        <v>0.1466149307603146</v>
+        <v>0.1655258654182639</v>
       </c>
       <c r="F5">
-        <v>0.3163475546470949</v>
+        <v>0.6718337479717746</v>
       </c>
       <c r="G5">
-        <v>0.2263531354406396</v>
+        <v>0.5151317428898778</v>
       </c>
       <c r="H5">
-        <v>0.223601939351326</v>
+        <v>0.6687543177877586</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.000589167451039</v>
+        <v>1.442122628280174</v>
       </c>
       <c r="L5">
-        <v>0.1344294686787677</v>
+        <v>0.1439311453029859</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8970540440098063</v>
+        <v>2.334522627130667</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3279859476465106</v>
+        <v>0.39286556799442</v>
       </c>
       <c r="D6">
-        <v>0.05499536527955939</v>
+        <v>0.02931782055455301</v>
       </c>
       <c r="E6">
-        <v>0.1457992362835761</v>
+        <v>0.1653593994080396</v>
       </c>
       <c r="F6">
-        <v>0.3157985171387665</v>
+        <v>0.6721370136841642</v>
       </c>
       <c r="G6">
-        <v>0.2261636101802011</v>
+        <v>0.5154942938640161</v>
       </c>
       <c r="H6">
-        <v>0.2238731362920703</v>
+        <v>0.6691644177960399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.972364661495192</v>
+        <v>1.432909182485218</v>
       </c>
       <c r="L6">
-        <v>0.1336593130182138</v>
+        <v>0.1437711525743879</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8971991811901461</v>
+        <v>2.336134824677501</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3403445959208398</v>
+        <v>0.3953493794978158</v>
       </c>
       <c r="D7">
-        <v>0.05714015926114513</v>
+        <v>0.03004232593946199</v>
       </c>
       <c r="E7">
-        <v>0.1514782931343497</v>
+        <v>0.1665234263552797</v>
       </c>
       <c r="F7">
-        <v>0.319717742775957</v>
+        <v>0.6700858731848882</v>
       </c>
       <c r="G7">
-        <v>0.2275856892293788</v>
+        <v>0.513026727419664</v>
       </c>
       <c r="H7">
-        <v>0.2220562259212002</v>
+        <v>0.6663561011513792</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.168257537962859</v>
+        <v>1.496820003058247</v>
       </c>
       <c r="L7">
-        <v>0.1390213351278504</v>
+        <v>0.1448893537797673</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8965537960022658</v>
+        <v>2.325127184803009</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.395876405448206</v>
+        <v>0.4067973570493848</v>
       </c>
       <c r="D8">
-        <v>0.06659660463994754</v>
+        <v>0.0332239017205751</v>
       </c>
       <c r="E8">
-        <v>0.1769980309919603</v>
+        <v>0.1718720450062463</v>
       </c>
       <c r="F8">
-        <v>0.3398319151335087</v>
+        <v>0.6623698855319091</v>
       </c>
       <c r="G8">
-        <v>0.2366406851487923</v>
+        <v>0.5033522021724508</v>
       </c>
       <c r="H8">
-        <v>0.2157235225950771</v>
+        <v>0.6549104001717012</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.032646326210624</v>
+        <v>1.777814357124555</v>
       </c>
       <c r="L8">
-        <v>0.1631182737118948</v>
+        <v>0.1500137303992872</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9031014178953143</v>
+        <v>2.281084820413781</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5090534226090142</v>
+        <v>0.4309967050731132</v>
       </c>
       <c r="D9">
-        <v>0.08514857246889562</v>
+        <v>0.03940453814650624</v>
       </c>
       <c r="E9">
-        <v>0.2290315631066662</v>
+        <v>0.1831228155443654</v>
       </c>
       <c r="F9">
-        <v>0.3908424991808985</v>
+        <v>0.6520633353394985</v>
       </c>
       <c r="G9">
-        <v>0.2658544437673598</v>
+        <v>0.4887779859588619</v>
       </c>
       <c r="H9">
-        <v>0.2100215551359952</v>
+        <v>0.6358768046682712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.731364423968955</v>
+        <v>2.324917802778145</v>
       </c>
       <c r="L9">
-        <v>0.2122722215650015</v>
+        <v>0.1607465263643206</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9542034054921089</v>
+        <v>2.211094800523966</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.595538430511084</v>
+        <v>0.4498441367013868</v>
       </c>
       <c r="D10">
-        <v>0.09882427308083663</v>
+        <v>0.04390802423466766</v>
       </c>
       <c r="E10">
-        <v>0.2688241717323478</v>
+        <v>0.1918549804939076</v>
       </c>
       <c r="F10">
-        <v>0.4368291511948073</v>
+        <v>0.6474566402747328</v>
       </c>
       <c r="G10">
-        <v>0.295793773423668</v>
+        <v>0.4807819077317106</v>
       </c>
       <c r="H10">
-        <v>0.210598042439841</v>
+        <v>0.6239801422826758</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.985781677018736</v>
+        <v>2.724334652824837</v>
       </c>
       <c r="L10">
-        <v>0.2498907502998549</v>
+        <v>0.1690511796421958</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.01964229566363</v>
+        <v>2.169738627529227</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6357819089791121</v>
+        <v>0.4586507327794322</v>
       </c>
       <c r="D11">
-        <v>0.1050657634925045</v>
+        <v>0.04594830252867155</v>
       </c>
       <c r="E11">
-        <v>0.2873513093620446</v>
+        <v>0.195929124009723</v>
       </c>
       <c r="F11">
-        <v>0.459947480577533</v>
+        <v>0.6460101370822358</v>
       </c>
       <c r="G11">
-        <v>0.3116132219086012</v>
+        <v>0.4777396789714743</v>
       </c>
       <c r="H11">
-        <v>0.2120566720836052</v>
+        <v>0.6190229301029717</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.558853455145879</v>
+        <v>2.90546024572717</v>
       </c>
       <c r="L11">
-        <v>0.267415328756158</v>
+        <v>0.172920793680774</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.056568283201671</v>
+        <v>2.15312778676801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.65116640606837</v>
+        <v>0.462019023754209</v>
       </c>
       <c r="D12">
-        <v>0.1074330900287066</v>
+        <v>0.04671965981414417</v>
       </c>
       <c r="E12">
-        <v>0.2944358694097389</v>
+        <v>0.1974865503754799</v>
       </c>
       <c r="F12">
-        <v>0.4690496735746663</v>
+        <v>0.6455561390012079</v>
       </c>
       <c r="G12">
-        <v>0.3179525615695127</v>
+        <v>0.4766737939097538</v>
       </c>
       <c r="H12">
-        <v>0.2127957563946836</v>
+        <v>0.6172112829848118</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.7763015583418</v>
+        <v>2.973962521182443</v>
       </c>
       <c r="L12">
-        <v>0.274118237312436</v>
+        <v>0.1743993385658911</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.071680317663777</v>
+        <v>2.147155821881029</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6478463608764571</v>
+        <v>0.4612921163136434</v>
       </c>
       <c r="D13">
-        <v>0.1069230594778361</v>
+        <v>0.04655359063494302</v>
       </c>
       <c r="E13">
-        <v>0.2929068981179412</v>
+        <v>0.1971504798909365</v>
       </c>
       <c r="F13">
-        <v>0.4670733555011708</v>
+        <v>0.6456497388733027</v>
       </c>
       <c r="G13">
-        <v>0.3165712098942919</v>
+        <v>0.4768995114794166</v>
       </c>
       <c r="H13">
-        <v>0.2126280296120484</v>
+        <v>0.6175985360022622</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.729449228971419</v>
+        <v>2.959213219843718</v>
       </c>
       <c r="L13">
-        <v>0.272671551451495</v>
+        <v>0.1740803200088976</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.068373785287605</v>
+        <v>2.148427815282332</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6370445975418022</v>
+        <v>0.458927174535944</v>
       </c>
       <c r="D14">
-        <v>0.1052604431539947</v>
+        <v>0.04601178791121185</v>
       </c>
       <c r="E14">
-        <v>0.287932737145205</v>
+        <v>0.1960569611163407</v>
       </c>
       <c r="F14">
-        <v>0.4606891633977384</v>
+        <v>0.6459709048680011</v>
       </c>
       <c r="G14">
-        <v>0.3121275759685176</v>
+        <v>0.4776502584400646</v>
       </c>
       <c r="H14">
-        <v>0.21211364617713</v>
+        <v>0.6188725703094491</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.576733721597805</v>
+        <v>2.911097716156178</v>
       </c>
       <c r="L14">
-        <v>0.2679653983030761</v>
+        <v>0.17304216974685</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.057788333319081</v>
+        <v>2.152630083765899</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.630447595286256</v>
+        <v>0.4574829306632182</v>
       </c>
       <c r="D15">
-        <v>0.1042425664576001</v>
+        <v>0.04567975369525357</v>
       </c>
       <c r="E15">
-        <v>0.2848951070310903</v>
+        <v>0.1953890551951289</v>
       </c>
       <c r="F15">
-        <v>0.4568249337534169</v>
+        <v>0.6461798512540042</v>
       </c>
       <c r="G15">
-        <v>0.3094521631217191</v>
+        <v>0.4781213469585595</v>
       </c>
       <c r="H15">
-        <v>0.2118233459755601</v>
+        <v>0.6196614934488167</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.483250906199032</v>
+        <v>2.881614258159914</v>
       </c>
       <c r="L15">
-        <v>0.2650916681838709</v>
+        <v>0.1724079927723068</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.05145455955082</v>
+        <v>2.1552455784323</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5929278600491443</v>
+        <v>0.4492732850307277</v>
       </c>
       <c r="D16">
-        <v>0.09841686004799044</v>
+        <v>0.04377451460810278</v>
       </c>
       <c r="E16">
-        <v>0.2676225712431517</v>
+        <v>0.1915907742235774</v>
       </c>
       <c r="F16">
-        <v>0.4353652042178453</v>
+        <v>0.647564270328381</v>
       </c>
       <c r="G16">
-        <v>0.2948069236930309</v>
+        <v>0.480992748913792</v>
       </c>
       <c r="H16">
-        <v>0.2105280213845617</v>
+        <v>0.6243132703655334</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.948386407895214</v>
+        <v>2.712485839813212</v>
       </c>
       <c r="L16">
-        <v>0.2487543918369823</v>
+        <v>0.1688001388507843</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.017381467551559</v>
+        <v>2.170868630200232</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.570152194885452</v>
+        <v>0.4442965224603483</v>
       </c>
       <c r="D17">
-        <v>0.09484879142455327</v>
+        <v>0.04260353231352809</v>
       </c>
       <c r="E17">
-        <v>0.2571405537119418</v>
+        <v>0.1892867295708669</v>
       </c>
       <c r="F17">
-        <v>0.4227852300906321</v>
+        <v>0.6485801180217905</v>
       </c>
       <c r="G17">
-        <v>0.2864083228005114</v>
+        <v>0.482907103460299</v>
       </c>
       <c r="H17">
-        <v>0.2100498954951604</v>
+        <v>0.6272835462695809</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.620947639363067</v>
+        <v>2.608581941619491</v>
       </c>
       <c r="L17">
-        <v>0.2388426130538903</v>
+        <v>0.1666103510035981</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9983804298920234</v>
+        <v>2.181018003771015</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5571360359738549</v>
+        <v>0.4414559360908186</v>
       </c>
       <c r="D18">
-        <v>0.09279838993029443</v>
+        <v>0.04192922824915257</v>
       </c>
       <c r="E18">
-        <v>0.2511511143411624</v>
+        <v>0.1879710899279914</v>
       </c>
       <c r="F18">
-        <v>0.4157544874474297</v>
+        <v>0.649225478594353</v>
       </c>
       <c r="G18">
-        <v>0.281782640772235</v>
+        <v>0.4840641825240084</v>
       </c>
       <c r="H18">
-        <v>0.2098865529305982</v>
+        <v>0.6290347533410667</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.432836576194632</v>
+        <v>2.548765641102079</v>
       </c>
       <c r="L18">
-        <v>0.2331798867200092</v>
+        <v>0.165359481796429</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9881188124848279</v>
+        <v>2.187062854701452</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5527429262717476</v>
+        <v>0.4404979280389227</v>
       </c>
       <c r="D19">
-        <v>0.0921044526253425</v>
+        <v>0.04170078691419832</v>
       </c>
       <c r="E19">
-        <v>0.2491297632008624</v>
+        <v>0.1875272835710291</v>
       </c>
       <c r="F19">
-        <v>0.4134082719423091</v>
+        <v>0.6494544628970758</v>
       </c>
       <c r="G19">
-        <v>0.280250719187535</v>
+        <v>0.4844655497359227</v>
       </c>
       <c r="H19">
-        <v>0.2098499972757111</v>
+        <v>0.6296350249500193</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.369181138801821</v>
+        <v>2.528503796796144</v>
       </c>
       <c r="L19">
-        <v>0.2312689380388093</v>
+        <v>0.1649374424838328</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9847560998429401</v>
+        <v>2.189145077941362</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5725679212276589</v>
+        <v>0.4448240395122696</v>
       </c>
       <c r="D20">
-        <v>0.09522842007235965</v>
+        <v>0.04272826706859689</v>
       </c>
       <c r="E20">
-        <v>0.2582522372199989</v>
+        <v>0.1895310070085756</v>
       </c>
       <c r="F20">
-        <v>0.4241029597114689</v>
+        <v>0.6484656555385371</v>
       </c>
       <c r="G20">
-        <v>0.2872809271452752</v>
+        <v>0.4826975181129427</v>
       </c>
       <c r="H20">
-        <v>0.2100891334133905</v>
+        <v>0.6269629262585426</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.655780352644001</v>
+        <v>2.61964825735248</v>
       </c>
       <c r="L20">
-        <v>0.2398937258512319</v>
+        <v>0.1668425635182018</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.000333364975916</v>
+        <v>2.179916130254327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6402132668046647</v>
+        <v>0.4596209085596854</v>
       </c>
       <c r="D21">
-        <v>0.1057486830100913</v>
+        <v>0.04617096284810884</v>
       </c>
       <c r="E21">
-        <v>0.2893918397806772</v>
+        <v>0.1963777569125256</v>
       </c>
       <c r="F21">
-        <v>0.4625546522774542</v>
+        <v>0.6458740226322632</v>
       </c>
       <c r="G21">
-        <v>0.3134230388908463</v>
+        <v>0.4774274036602577</v>
       </c>
       <c r="H21">
-        <v>0.2122595421584066</v>
+        <v>0.6184965754571152</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.621577327204648</v>
+        <v>2.925232772500124</v>
       </c>
       <c r="L21">
-        <v>0.2693458353470959</v>
+        <v>0.1733467411763172</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.060866062592851</v>
+        <v>2.151387127748819</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6852777325480588</v>
+        <v>0.4694863153303004</v>
       </c>
       <c r="D22">
-        <v>0.1126469611007508</v>
+        <v>0.04841364569891482</v>
       </c>
       <c r="E22">
-        <v>0.31014799677871</v>
+        <v>0.2009378139636269</v>
       </c>
       <c r="F22">
-        <v>0.4897287246290176</v>
+        <v>0.6447269471535861</v>
       </c>
       <c r="G22">
-        <v>0.3325588569408922</v>
+        <v>0.4744854276555941</v>
       </c>
       <c r="H22">
-        <v>0.2147741500303653</v>
+        <v>0.6133454285873512</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.255383020275985</v>
+        <v>3.124446533126786</v>
       </c>
       <c r="L22">
-        <v>0.2889874146643479</v>
+        <v>0.1776745756921798</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.107060373845002</v>
+        <v>2.134597188163866</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.661142312130238</v>
+        <v>0.4642031554209041</v>
       </c>
       <c r="D23">
-        <v>0.1089628304850834</v>
+        <v>0.04721736853389302</v>
       </c>
       <c r="E23">
-        <v>0.2990303485383805</v>
+        <v>0.1984962222329045</v>
       </c>
       <c r="F23">
-        <v>0.475027304830725</v>
+        <v>0.645289000728539</v>
       </c>
       <c r="G23">
-        <v>0.3221466544410418</v>
+        <v>0.4760094700879307</v>
       </c>
       <c r="H23">
-        <v>0.213326589664419</v>
+        <v>0.6160596757009245</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.916839528687149</v>
+        <v>3.018169744278168</v>
       </c>
       <c r="L23">
-        <v>0.2784657251977052</v>
+        <v>0.1753576829386247</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.081763616557282</v>
+        <v>2.143388025482352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5714755299508738</v>
+        <v>0.4445854848196404</v>
       </c>
       <c r="D24">
-        <v>0.09505678713374266</v>
+        <v>0.04267187787974791</v>
       </c>
       <c r="E24">
-        <v>0.257749531009857</v>
+        <v>0.1894205411882552</v>
       </c>
       <c r="F24">
-        <v>0.4235065884081521</v>
+        <v>0.6485172129990673</v>
       </c>
       <c r="G24">
-        <v>0.2868857935164044</v>
+        <v>0.4827920957221608</v>
       </c>
       <c r="H24">
-        <v>0.2100710476303362</v>
+        <v>0.6271077429013161</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.640032060213741</v>
+        <v>2.614645426670904</v>
       </c>
       <c r="L24">
-        <v>0.2394184071586807</v>
+        <v>0.1667375551078436</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.999448387451082</v>
+        <v>2.18041363373473</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4779062585330109</v>
+        <v>0.4242626606873046</v>
       </c>
       <c r="D25">
-        <v>0.08012494741581833</v>
+        <v>0.0377389565087185</v>
       </c>
       <c r="E25">
-        <v>0.2147074920668501</v>
+        <v>0.1799974267339906</v>
       </c>
       <c r="F25">
-        <v>0.3756601344881432</v>
+        <v>0.6543325083138214</v>
       </c>
       <c r="G25">
-        <v>0.2565772181960071</v>
+        <v>0.492246728967551</v>
       </c>
       <c r="H25">
-        <v>0.2107786500904183</v>
+        <v>0.6406598933237433</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.271018771027286</v>
+        <v>2.177347470515599</v>
       </c>
       <c r="L25">
-        <v>0.1987371394535558</v>
+        <v>0.1577695626390465</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9358307113700164</v>
+        <v>2.228267236292709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_77/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4100175597556301</v>
+        <v>0.4111872577696261</v>
       </c>
       <c r="D2">
-        <v>0.03408206458156826</v>
+        <v>0.06915798136158458</v>
       </c>
       <c r="E2">
-        <v>0.1733727720169114</v>
+        <v>0.1840351091789003</v>
       </c>
       <c r="F2">
-        <v>0.6606048217810709</v>
+        <v>0.346014007429595</v>
       </c>
       <c r="G2">
-        <v>0.5010273403105145</v>
+        <v>0.2398177499034162</v>
       </c>
       <c r="H2">
-        <v>0.6520397677357721</v>
+        <v>0.214438940742447</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.853689686677853</v>
+        <v>5.266958298051009</v>
       </c>
       <c r="L2">
-        <v>0.1514483768234953</v>
+        <v>0.169763935203008</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.270256797398801</v>
+        <v>0.9073064375296411</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4008109535730568</v>
+        <v>0.3670881749987132</v>
       </c>
       <c r="D3">
-        <v>0.03158881245200718</v>
+        <v>0.06172895819739921</v>
       </c>
       <c r="E3">
-        <v>0.1690780971998862</v>
+        <v>0.1637678296385232</v>
       </c>
       <c r="F3">
-        <v>0.6660892639240785</v>
+        <v>0.3289242744293048</v>
       </c>
       <c r="G3">
-        <v>0.5081027607491535</v>
+        <v>0.2314341070652759</v>
       </c>
       <c r="H3">
-        <v>0.6606238608951216</v>
+        <v>0.2186566977541062</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.633340012826352</v>
+        <v>4.58757065407849</v>
       </c>
       <c r="L3">
-        <v>0.1473393954464797</v>
+        <v>0.150625171510967</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.302900786523963</v>
+        <v>0.8978954267335411</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3953787099069643</v>
+        <v>0.3404897209134106</v>
       </c>
       <c r="D4">
-        <v>0.03005079516928788</v>
+        <v>0.05716524994422656</v>
       </c>
       <c r="E4">
-        <v>0.166537162879461</v>
+        <v>0.1515449813035161</v>
       </c>
       <c r="F4">
-        <v>0.6700626017487394</v>
+        <v>0.3197650814784723</v>
       </c>
       <c r="G4">
-        <v>0.5129985167585005</v>
+        <v>0.2276037851081654</v>
       </c>
       <c r="H4">
-        <v>0.6663237581009298</v>
+        <v>0.2220358584949693</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.497567283811691</v>
+        <v>4.170549531939173</v>
       </c>
       <c r="L4">
-        <v>0.144902541993801</v>
+        <v>0.1390843007757923</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.325000857630101</v>
+        <v>0.8965511856932693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3932205692147193</v>
+        <v>0.3297610467844834</v>
       </c>
       <c r="D5">
-        <v>0.02942228815950187</v>
+        <v>0.0553044313173956</v>
       </c>
       <c r="E5">
-        <v>0.1655258654182639</v>
+        <v>0.1466149307603146</v>
       </c>
       <c r="F5">
-        <v>0.6718337479717746</v>
+        <v>0.3163475546470949</v>
       </c>
       <c r="G5">
-        <v>0.5151317428898778</v>
+        <v>0.2263531354405686</v>
       </c>
       <c r="H5">
-        <v>0.6687543177877586</v>
+        <v>0.223601939351326</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.442122628280174</v>
+        <v>4.000589167451153</v>
       </c>
       <c r="L5">
-        <v>0.1439311453029859</v>
+        <v>0.1344294686787748</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.334522627130667</v>
+        <v>0.8970540440097352</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.39286556799442</v>
+        <v>0.3279859476467379</v>
       </c>
       <c r="D6">
-        <v>0.02931782055455301</v>
+        <v>0.05499536527984361</v>
       </c>
       <c r="E6">
-        <v>0.1653593994080396</v>
+        <v>0.1457992362835796</v>
       </c>
       <c r="F6">
-        <v>0.6721370136841642</v>
+        <v>0.3157985171387523</v>
       </c>
       <c r="G6">
-        <v>0.5154942938640161</v>
+        <v>0.2261636101802651</v>
       </c>
       <c r="H6">
-        <v>0.6691644177960399</v>
+        <v>0.2238731362919495</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.432909182485218</v>
+        <v>3.972364661495192</v>
       </c>
       <c r="L6">
-        <v>0.1437711525743879</v>
+        <v>0.1336593130180859</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.336134824677501</v>
+        <v>0.8971991811900892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3953493794978158</v>
+        <v>0.340344595920925</v>
       </c>
       <c r="D7">
-        <v>0.03004232593946199</v>
+        <v>0.05714015926123039</v>
       </c>
       <c r="E7">
-        <v>0.1665234263552797</v>
+        <v>0.1514782931343177</v>
       </c>
       <c r="F7">
-        <v>0.6700858731848882</v>
+        <v>0.3197177427759357</v>
       </c>
       <c r="G7">
-        <v>0.513026727419664</v>
+        <v>0.2275856892293291</v>
       </c>
       <c r="H7">
-        <v>0.6663561011513792</v>
+        <v>0.2220562259212002</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.496820003058247</v>
+        <v>4.168257537962802</v>
       </c>
       <c r="L7">
-        <v>0.1448893537797673</v>
+        <v>0.139021335127822</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.325127184803009</v>
+        <v>0.8965537960021948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4067973570493848</v>
+        <v>0.3958764054484334</v>
       </c>
       <c r="D8">
-        <v>0.0332239017205751</v>
+        <v>0.06659660464013939</v>
       </c>
       <c r="E8">
-        <v>0.1718720450062463</v>
+        <v>0.1769980309919319</v>
       </c>
       <c r="F8">
-        <v>0.6623698855319091</v>
+        <v>0.3398319151335016</v>
       </c>
       <c r="G8">
-        <v>0.5033522021724508</v>
+        <v>0.2366406851486715</v>
       </c>
       <c r="H8">
-        <v>0.6549104001717012</v>
+        <v>0.2157235225950771</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.777814357124555</v>
+        <v>5.032646326210568</v>
       </c>
       <c r="L8">
-        <v>0.1500137303992872</v>
+        <v>0.1631182737118735</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.281084820413781</v>
+        <v>0.9031014178953427</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4309967050731132</v>
+        <v>0.5090534226088721</v>
       </c>
       <c r="D9">
-        <v>0.03940453814650624</v>
+        <v>0.08514857246898089</v>
       </c>
       <c r="E9">
-        <v>0.1831228155443654</v>
+        <v>0.2290315631066662</v>
       </c>
       <c r="F9">
-        <v>0.6520633353394985</v>
+        <v>0.3908424991808843</v>
       </c>
       <c r="G9">
-        <v>0.4887779859588619</v>
+        <v>0.2658544437672958</v>
       </c>
       <c r="H9">
-        <v>0.6358768046682712</v>
+        <v>0.2100215551359881</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.324917802778145</v>
+        <v>6.731364423969012</v>
       </c>
       <c r="L9">
-        <v>0.1607465263643206</v>
+        <v>0.2122722215649304</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.211094800523966</v>
+        <v>0.9542034054920379</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4498441367013868</v>
+        <v>0.5955384305115103</v>
       </c>
       <c r="D10">
-        <v>0.04390802423466766</v>
+        <v>0.09882427308087216</v>
       </c>
       <c r="E10">
-        <v>0.1918549804939076</v>
+        <v>0.268824171732355</v>
       </c>
       <c r="F10">
-        <v>0.6474566402747328</v>
+        <v>0.4368291511948144</v>
       </c>
       <c r="G10">
-        <v>0.4807819077317106</v>
+        <v>0.2957937734236111</v>
       </c>
       <c r="H10">
-        <v>0.6239801422826758</v>
+        <v>0.2105980424397274</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.724334652824837</v>
+        <v>7.985781677018792</v>
       </c>
       <c r="L10">
-        <v>0.1690511796421958</v>
+        <v>0.2498907502999543</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.169738627529227</v>
+        <v>1.019642295663601</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4586507327794322</v>
+        <v>0.6357819089792258</v>
       </c>
       <c r="D11">
-        <v>0.04594830252867155</v>
+        <v>0.1050657634927745</v>
       </c>
       <c r="E11">
-        <v>0.195929124009723</v>
+        <v>0.2873513093620303</v>
       </c>
       <c r="F11">
-        <v>0.6460101370822358</v>
+        <v>0.4599474805775472</v>
       </c>
       <c r="G11">
-        <v>0.4777396789714743</v>
+        <v>0.3116132219086438</v>
       </c>
       <c r="H11">
-        <v>0.6190229301029717</v>
+        <v>0.212056672083591</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.90546024572717</v>
+        <v>8.558853455145936</v>
       </c>
       <c r="L11">
-        <v>0.172920793680774</v>
+        <v>0.267415328756158</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.15312778676801</v>
+        <v>1.056568283201727</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.462019023754209</v>
+        <v>0.6511664060684552</v>
       </c>
       <c r="D12">
-        <v>0.04671965981414417</v>
+        <v>0.1074330900287066</v>
       </c>
       <c r="E12">
-        <v>0.1974865503754799</v>
+        <v>0.2944358694097318</v>
       </c>
       <c r="F12">
-        <v>0.6455561390012079</v>
+        <v>0.4690496735746663</v>
       </c>
       <c r="G12">
-        <v>0.4766737939097538</v>
+        <v>0.3179525615694558</v>
       </c>
       <c r="H12">
-        <v>0.6172112829848118</v>
+        <v>0.2127957563946836</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.973962521182443</v>
+        <v>8.776301558341856</v>
       </c>
       <c r="L12">
-        <v>0.1743993385658911</v>
+        <v>0.2741182373124786</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.147155821881029</v>
+        <v>1.071680317663777</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4612921163136434</v>
+        <v>0.6478463608764571</v>
       </c>
       <c r="D13">
-        <v>0.04655359063494302</v>
+        <v>0.1069230594776798</v>
       </c>
       <c r="E13">
-        <v>0.1971504798909365</v>
+        <v>0.2929068981179412</v>
       </c>
       <c r="F13">
-        <v>0.6456497388733027</v>
+        <v>0.4670733555011779</v>
       </c>
       <c r="G13">
-        <v>0.4768995114794166</v>
+        <v>0.3165712098942919</v>
       </c>
       <c r="H13">
-        <v>0.6175985360022622</v>
+        <v>0.2126280296120484</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.959213219843718</v>
+        <v>8.729449228971475</v>
       </c>
       <c r="L13">
-        <v>0.1740803200088976</v>
+        <v>0.2726715514515234</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.148427815282332</v>
+        <v>1.068373785287662</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.458927174535944</v>
+        <v>0.6370445975418022</v>
       </c>
       <c r="D14">
-        <v>0.04601178791121185</v>
+        <v>0.1052604431539947</v>
       </c>
       <c r="E14">
-        <v>0.1960569611163407</v>
+        <v>0.2879327371452263</v>
       </c>
       <c r="F14">
-        <v>0.6459709048680011</v>
+        <v>0.460689163397717</v>
       </c>
       <c r="G14">
-        <v>0.4776502584400646</v>
+        <v>0.3121275759684607</v>
       </c>
       <c r="H14">
-        <v>0.6188725703094491</v>
+        <v>0.2121136461772437</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.911097716156178</v>
+        <v>8.57673372159752</v>
       </c>
       <c r="L14">
-        <v>0.17304216974685</v>
+        <v>0.2679653983030192</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.152630083765899</v>
+        <v>1.057788333319053</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4574829306632182</v>
+        <v>0.6304475952861992</v>
       </c>
       <c r="D15">
-        <v>0.04567975369525357</v>
+        <v>0.1042425664576996</v>
       </c>
       <c r="E15">
-        <v>0.1953890551951289</v>
+        <v>0.2848951070310974</v>
       </c>
       <c r="F15">
-        <v>0.6461798512540042</v>
+        <v>0.4568249337534311</v>
       </c>
       <c r="G15">
-        <v>0.4781213469585595</v>
+        <v>0.3094521631216622</v>
       </c>
       <c r="H15">
-        <v>0.6196614934488167</v>
+        <v>0.2118233459756738</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.881614258159914</v>
+        <v>8.48325090619926</v>
       </c>
       <c r="L15">
-        <v>0.1724079927723068</v>
+        <v>0.2650916681838851</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.1552455784323</v>
+        <v>1.051454559550876</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4492732850307277</v>
+        <v>0.5929278600491159</v>
       </c>
       <c r="D16">
-        <v>0.04377451460810278</v>
+        <v>0.0984168600479407</v>
       </c>
       <c r="E16">
-        <v>0.1915907742235774</v>
+        <v>0.2676225712431304</v>
       </c>
       <c r="F16">
-        <v>0.647564270328381</v>
+        <v>0.4353652042178453</v>
       </c>
       <c r="G16">
-        <v>0.480992748913792</v>
+        <v>0.2948069236930309</v>
       </c>
       <c r="H16">
-        <v>0.6243132703655334</v>
+        <v>0.2105280213845475</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.712485839813212</v>
+        <v>7.948386407895157</v>
       </c>
       <c r="L16">
-        <v>0.1688001388507843</v>
+        <v>0.248754391837025</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.170868630200232</v>
+        <v>1.017381467551559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4442965224603483</v>
+        <v>0.5701521948854236</v>
       </c>
       <c r="D17">
-        <v>0.04260353231352809</v>
+        <v>0.09484879142439695</v>
       </c>
       <c r="E17">
-        <v>0.1892867295708669</v>
+        <v>0.2571405537119418</v>
       </c>
       <c r="F17">
-        <v>0.6485801180217905</v>
+        <v>0.4227852300906321</v>
       </c>
       <c r="G17">
-        <v>0.482907103460299</v>
+        <v>0.2864083228004404</v>
       </c>
       <c r="H17">
-        <v>0.6272835462695809</v>
+        <v>0.2100498954951462</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.608581941619491</v>
+        <v>7.62094763936318</v>
       </c>
       <c r="L17">
-        <v>0.1666103510035981</v>
+        <v>0.2388426130539045</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.181018003771015</v>
+        <v>0.9983804298919949</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4414559360908186</v>
+        <v>0.5571360359735991</v>
       </c>
       <c r="D18">
-        <v>0.04192922824915257</v>
+        <v>0.09279838993007417</v>
       </c>
       <c r="E18">
-        <v>0.1879710899279914</v>
+        <v>0.2511511143411553</v>
       </c>
       <c r="F18">
-        <v>0.649225478594353</v>
+        <v>0.4157544874474155</v>
       </c>
       <c r="G18">
-        <v>0.4840641825240084</v>
+        <v>0.2817826407722208</v>
       </c>
       <c r="H18">
-        <v>0.6290347533410667</v>
+        <v>0.2098865529304845</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.548765641102079</v>
+        <v>7.432836576194575</v>
       </c>
       <c r="L18">
-        <v>0.165359481796429</v>
+        <v>0.2331798867199382</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.187062854701452</v>
+        <v>0.9881188124848848</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4404979280389227</v>
+        <v>0.5527429262718613</v>
       </c>
       <c r="D19">
-        <v>0.04170078691419832</v>
+        <v>0.0921044526253354</v>
       </c>
       <c r="E19">
-        <v>0.1875272835710291</v>
+        <v>0.2491297632008624</v>
       </c>
       <c r="F19">
-        <v>0.6494544628970758</v>
+        <v>0.4134082719423304</v>
       </c>
       <c r="G19">
-        <v>0.4844655497359227</v>
+        <v>0.2802507191875065</v>
       </c>
       <c r="H19">
-        <v>0.6296350249500193</v>
+        <v>0.2098499972757253</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.528503796796144</v>
+        <v>7.369181138801991</v>
       </c>
       <c r="L19">
-        <v>0.1649374424838328</v>
+        <v>0.2312689380387098</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.189145077941362</v>
+        <v>0.9847560998429685</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4448240395122696</v>
+        <v>0.5725679212276589</v>
       </c>
       <c r="D20">
-        <v>0.04272826706859689</v>
+        <v>0.09522842007246624</v>
       </c>
       <c r="E20">
-        <v>0.1895310070085756</v>
+        <v>0.2582522372199918</v>
       </c>
       <c r="F20">
-        <v>0.6484656555385371</v>
+        <v>0.4241029597114689</v>
       </c>
       <c r="G20">
-        <v>0.4826975181129427</v>
+        <v>0.2872809271452752</v>
       </c>
       <c r="H20">
-        <v>0.6269629262585426</v>
+        <v>0.2100891334135042</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.61964825735248</v>
+        <v>7.655780352644172</v>
       </c>
       <c r="L20">
-        <v>0.1668425635182018</v>
+        <v>0.2398937258512177</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.179916130254327</v>
+        <v>1.000333364975916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4596209085596854</v>
+        <v>0.640213266804551</v>
       </c>
       <c r="D21">
-        <v>0.04617096284810884</v>
+        <v>0.1057486830100771</v>
       </c>
       <c r="E21">
-        <v>0.1963777569125256</v>
+        <v>0.2893918397806701</v>
       </c>
       <c r="F21">
-        <v>0.6458740226322632</v>
+        <v>0.4625546522774329</v>
       </c>
       <c r="G21">
-        <v>0.4774274036602577</v>
+        <v>0.3134230388907469</v>
       </c>
       <c r="H21">
-        <v>0.6184965754571152</v>
+        <v>0.2122595421585061</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.925232772500124</v>
+        <v>8.621577327204591</v>
       </c>
       <c r="L21">
-        <v>0.1733467411763172</v>
+        <v>0.2693458353471527</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.151387127748819</v>
+        <v>1.060866062592851</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4694863153303004</v>
+        <v>0.6852777325480872</v>
       </c>
       <c r="D22">
-        <v>0.04841364569891482</v>
+        <v>0.1126469611008503</v>
       </c>
       <c r="E22">
-        <v>0.2009378139636269</v>
+        <v>0.31014799677871</v>
       </c>
       <c r="F22">
-        <v>0.6447269471535861</v>
+        <v>0.4897287246290176</v>
       </c>
       <c r="G22">
-        <v>0.4744854276555941</v>
+        <v>0.3325588569408211</v>
       </c>
       <c r="H22">
-        <v>0.6133454285873512</v>
+        <v>0.2147741500302516</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.124446533126786</v>
+        <v>9.255383020276042</v>
       </c>
       <c r="L22">
-        <v>0.1776745756921798</v>
+        <v>0.288987414664291</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.134597188163866</v>
+        <v>1.107060373845002</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4642031554209041</v>
+        <v>0.6611423121300106</v>
       </c>
       <c r="D23">
-        <v>0.04721736853389302</v>
+        <v>0.1089628304851971</v>
       </c>
       <c r="E23">
-        <v>0.1984962222329045</v>
+        <v>0.2990303485383521</v>
       </c>
       <c r="F23">
-        <v>0.645289000728539</v>
+        <v>0.4750273048307108</v>
       </c>
       <c r="G23">
-        <v>0.4760094700879307</v>
+        <v>0.3221466544410703</v>
       </c>
       <c r="H23">
-        <v>0.6160596757009245</v>
+        <v>0.213326589664419</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.018169744278168</v>
+        <v>8.916839528687149</v>
       </c>
       <c r="L23">
-        <v>0.1753576829386247</v>
+        <v>0.2784657251977904</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.143388025482352</v>
+        <v>1.081763616557282</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4445854848196404</v>
+        <v>0.5714755299510728</v>
       </c>
       <c r="D24">
-        <v>0.04267187787974791</v>
+        <v>0.09505678713397714</v>
       </c>
       <c r="E24">
-        <v>0.1894205411882552</v>
+        <v>0.2577495310098215</v>
       </c>
       <c r="F24">
-        <v>0.6485172129990673</v>
+        <v>0.4235065884081521</v>
       </c>
       <c r="G24">
-        <v>0.4827920957221608</v>
+        <v>0.2868857935165465</v>
       </c>
       <c r="H24">
-        <v>0.6271077429013161</v>
+        <v>0.2100710476303362</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.614645426670904</v>
+        <v>7.640032060213628</v>
       </c>
       <c r="L24">
-        <v>0.1667375551078436</v>
+        <v>0.2394184071586949</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.18041363373473</v>
+        <v>0.9994483874510252</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4242626606873046</v>
+        <v>0.4779062585329825</v>
       </c>
       <c r="D25">
-        <v>0.0377389565087185</v>
+        <v>0.0801249474160457</v>
       </c>
       <c r="E25">
-        <v>0.1799974267339906</v>
+        <v>0.2147074920668501</v>
       </c>
       <c r="F25">
-        <v>0.6543325083138214</v>
+        <v>0.3756601344881432</v>
       </c>
       <c r="G25">
-        <v>0.492246728967551</v>
+        <v>0.2565772181959431</v>
       </c>
       <c r="H25">
-        <v>0.6406598933237433</v>
+        <v>0.210778650090532</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.177347470515599</v>
+        <v>6.271018771027286</v>
       </c>
       <c r="L25">
-        <v>0.1577695626390465</v>
+        <v>0.1987371394535131</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.228267236292709</v>
+        <v>0.9358307113700164</v>
       </c>
     </row>
   </sheetData>
